--- a/14_Ttest_Anova_theory/data/Ttest2.xlsx
+++ b/14_Ttest_Anova_theory/data/Ttest2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nenisea/Documents/GitHub/2018_19/14_Ttest_Anova_theory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A627567-F450-1246-BBD3-D96195BD3A88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABE47FA-017D-4548-9B49-DD7312688DF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="1760" windowWidth="18440" windowHeight="10920" activeTab="2" xr2:uid="{925A2F5C-6D57-724C-AF35-13A591202FCA}"/>
+    <workbookView xWindow="160" yWindow="600" windowWidth="25060" windowHeight="13880" activeTab="2" xr2:uid="{925A2F5C-6D57-724C-AF35-13A591202FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="paired t-test" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>condB</t>
   </si>
@@ -38,9 +38,6 @@
     <t>(xa-meanxa)2</t>
   </si>
   <si>
-    <t>Paired T-test example</t>
-  </si>
-  <si>
     <t>(In green the initial data, in blue the computation)</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>2. compute the mean of the differences (use excel formula =AVERAGE(new column))</t>
   </si>
   <si>
-    <t>step by step</t>
-  </si>
-  <si>
     <t>CondA</t>
   </si>
   <si>
@@ -80,39 +74,12 @@
     <t>2. compute the mean of condition B (=AVERAGE)</t>
   </si>
   <si>
-    <t>3. compute the sample size in condition A (=COUNT)</t>
-  </si>
-  <si>
-    <t>4. compute the sample size in conditon B (=COUNT)</t>
-  </si>
-  <si>
-    <t>5. add columns to compute square difference of each x in condition A minus mean condition A</t>
-  </si>
-  <si>
-    <t>6. add columns to compute square difference of each x in condition B minus mean condition B</t>
-  </si>
-  <si>
     <t>(xb-meanxb)2</t>
   </si>
   <si>
-    <t>9. compute the nominator of the tvalue (1. minus 2.)</t>
-  </si>
-  <si>
-    <t>7. compute the sum of 5. (=SUM)</t>
-  </si>
-  <si>
-    <t>8. compute the sum of 6. (=SUM)</t>
-  </si>
-  <si>
-    <t>10. compute the variance (square of standard variation of the difference) = 7. + 8. divided by (3. + 4. - 2)</t>
-  </si>
-  <si>
     <t>11. compute the denominator of the tvalue (SQRT( 10. * (1/n1 + 1/n2))</t>
   </si>
   <si>
-    <t>12. compute the tvalue</t>
-  </si>
-  <si>
     <t>from http://www.mathandstatistics.com/learn-stats/hypothesis-testing/one-way-anova-by-hand</t>
   </si>
   <si>
@@ -183,13 +150,55 @@
   </si>
   <si>
     <t>6. compute the MSbetween (divide by dfbetween)</t>
+  </si>
+  <si>
+    <t>12. Compute the p_value</t>
+  </si>
+  <si>
+    <t>Paired T-test example (within subjects)</t>
+  </si>
+  <si>
+    <t>6. compute p_value (using T.DIST(t_value, DF, tails)</t>
+  </si>
+  <si>
+    <t>Paired T-test example (between subjects)</t>
+  </si>
+  <si>
+    <t>3. compute the nominator of the tvalue (1. minus 2.)</t>
+  </si>
+  <si>
+    <t>4. compute the sample size in condition A (=COUNT)</t>
+  </si>
+  <si>
+    <t>5. compute the sample size in conditon B (=COUNT)</t>
+  </si>
+  <si>
+    <t>6. add columns to compute square difference of each x in condition A minus mean condition A</t>
+  </si>
+  <si>
+    <t>7. add columns to compute square difference of each x in condition B minus mean condition B</t>
+  </si>
+  <si>
+    <t>8. compute the sum of 5. (=SUM)</t>
+  </si>
+  <si>
+    <t>9. compute the sum of 6. (=SUM)</t>
+  </si>
+  <si>
+    <t>Now the denominator</t>
+  </si>
+  <si>
+    <t>10. compute the variance (square of standard variation of the difference) = 8. +9. divided by (4. + 5. - 2)</t>
+  </si>
+  <si>
+    <t>12. compute the tvalue (nominator/denominator)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -289,6 +298,14 @@
       <color theme="1"/>
       <name val="Open Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -391,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -399,7 +416,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -407,7 +423,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -426,7 +441,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -450,6 +464,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,22 +489,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>342348</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>66261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1920461</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54665</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6783DA9C-BFFF-7F40-B9BB-A4B26FFD5F41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00659BEC-EF4B-354B-8D68-9CB694CD5BC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -503,8 +520,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="546100" y="2171700"/>
-          <a:ext cx="1244600" cy="1028700"/>
+          <a:off x="762000" y="2142435"/>
+          <a:ext cx="3378200" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -603,6 +620,135 @@
         <a:xfrm>
           <a:off x="9922934" y="2252133"/>
           <a:ext cx="3086100" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203201</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>481550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E13F3BF4-408D-DB46-BB5E-32A978F2C664}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="89066"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304801" y="1507067"/>
+          <a:ext cx="2733682" cy="541867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220134</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D57F938E-73BD-084A-BB2F-48F101E25DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="56112" b="23332"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="321734" y="2252133"/>
+          <a:ext cx="2743199" cy="1022244"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220134</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>179607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30DCB7A9-A488-A348-B27E-72F0736BD828}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="17356" b="55372"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="321734" y="3505200"/>
+          <a:ext cx="2692399" cy="1331074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -913,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8BCA20-5F15-C447-A213-EA94C61CBC29}">
   <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,235 +1082,238 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="17"/>
+      <c r="B2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>312</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>300</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <f>C3-D3</f>
         <v>12</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10">
+        <v>242</v>
+      </c>
+      <c r="D4" s="10">
+        <v>201</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" ref="E4:E11" si="0">C4-D4</f>
+        <v>41</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10">
+        <v>340</v>
+      </c>
+      <c r="D5" s="10">
+        <v>232</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="10">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11">
-        <v>242</v>
-      </c>
-      <c r="D4" s="11">
-        <v>201</v>
-      </c>
-      <c r="E4" s="12">
-        <f>C4-D4</f>
-        <v>41</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="10">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11">
-        <v>340</v>
-      </c>
-      <c r="D5" s="11">
-        <v>232</v>
-      </c>
-      <c r="E5" s="12">
-        <f t="shared" ref="E5:E11" si="0">C5-D5</f>
-        <v>108</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="10">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>388</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>312</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="18"/>
+      <c r="F6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>296</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>220</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="18"/>
+      <c r="F7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6">
+        <f>AVERAGE(E3:E11)</f>
+        <v>56.111111111111114</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>254</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>256</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>11</v>
+      <c r="F8" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="G8" s="6">
-        <f>AVERAGE(E3:E11)</f>
-        <v>56.111111111111114</v>
+        <f>STDEV(E3:E11)</f>
+        <v>34.173982956499401</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>391</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>328</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>10</v>
+      <c r="F9" s="18" t="s">
+        <v>5</v>
       </c>
       <c r="G9" s="6">
-        <f>STDEV(E3:E11)</f>
-        <v>34.173982956499401</v>
+        <f>G8/SQRT(9)</f>
+        <v>11.391327652166467</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>402</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>330</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="18" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="6">
-        <f>G9/SQRT(9)</f>
-        <v>11.391327652166467</v>
+        <f>G7/G9</f>
+        <v>4.9257744860354</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>9</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>290</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>231</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="7">
-        <f>G8/G10</f>
-        <v>4.9257744860354</v>
+      <c r="F11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="46">
+        <f>1-_xlfn.T.DIST(G10,8,2)</f>
+        <v>5.7778652567619382E-4</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E13" s="4"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="16"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E14" s="4"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="16"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E15" s="4"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="16"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E16" s="4"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="16"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
@@ -1234,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EB765A-1D21-A643-9465-852E8C1CB1B8}">
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1254,294 +1403,302 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="37" t="s">
+      <c r="E2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="9">
+        <v>134</v>
+      </c>
+      <c r="C3" s="24">
+        <v>70</v>
+      </c>
+      <c r="D3" s="29">
+        <f>(B3-$G5)*(B3-$G5)</f>
+        <v>196</v>
+      </c>
+      <c r="E3" s="26">
+        <f>(C3-$G$6)*(C3-$G$6)</f>
+        <v>961</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="10">
-        <v>134</v>
-      </c>
-      <c r="C3" s="26">
-        <v>70</v>
-      </c>
-      <c r="D3" s="31">
-        <f>(B3-$G6)*(B3-$G6)</f>
-        <v>196</v>
-      </c>
-      <c r="E3" s="28">
-        <f t="shared" ref="E3:E9" si="0">(C3-$G$7)*(C3-$G$7)</f>
-        <v>961</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>146</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <v>118</v>
       </c>
-      <c r="D4" s="31">
-        <f t="shared" ref="D4:D14" si="1">(B4-$G$6)*(B4-$G$6)</f>
+      <c r="D4" s="29">
+        <f>(B4-$G$5)*(B4-$G$5)</f>
         <v>676</v>
       </c>
-      <c r="E4" s="28">
-        <f t="shared" si="0"/>
+      <c r="E4" s="26">
+        <f>(C4-$G$6)*(C4-$G$6)</f>
         <v>289</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="18"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>104</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="24">
         <v>101</v>
       </c>
-      <c r="D5" s="31">
-        <f t="shared" si="1"/>
+      <c r="D5" s="29">
+        <f>(B5-$G$5)*(B5-$G$5)</f>
         <v>256</v>
       </c>
-      <c r="E5" s="28">
-        <f t="shared" si="0"/>
+      <c r="E5" s="26">
+        <f>(C5-$G$6)*(C5-$G$6)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="10">
-        <v>119</v>
-      </c>
-      <c r="C6" s="26">
-        <v>85</v>
-      </c>
-      <c r="D6" s="31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E6" s="28">
-        <f t="shared" si="0"/>
-        <v>256</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="32">
+      <c r="F5" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="30">
         <f>AVERAGE(B3:B14)</f>
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="10">
-        <v>124</v>
-      </c>
-      <c r="C7" s="26">
-        <v>107</v>
-      </c>
-      <c r="D7" s="31">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="E7" s="28">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="32">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="9">
+        <v>119</v>
+      </c>
+      <c r="C6" s="24">
+        <v>85</v>
+      </c>
+      <c r="D6" s="29">
+        <f>(B6-$G$5)*(B6-$G$5)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="26">
+        <f>(C6-$G$6)*(C6-$G$6)</f>
+        <v>256</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="30">
         <f>AVERAGE(C3:C9)</f>
         <v>101</v>
       </c>
     </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="9">
+        <v>124</v>
+      </c>
+      <c r="C7" s="24">
+        <v>107</v>
+      </c>
+      <c r="D7" s="29">
+        <f>(B7-$G$5)*(B7-$G$5)</f>
+        <v>16</v>
+      </c>
+      <c r="E7" s="26">
+        <f>(C7-$G$6)*(C7-$G$6)</f>
+        <v>36</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="30">
+        <f>G5-G6</f>
+        <v>19</v>
+      </c>
+    </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>161</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <v>132</v>
       </c>
-      <c r="D8" s="31">
-        <f t="shared" si="1"/>
+      <c r="D8" s="29">
+        <f>(B8-$G$5)*(B8-$G$5)</f>
         <v>1681</v>
       </c>
-      <c r="E8" s="28">
-        <f t="shared" si="0"/>
+      <c r="E8" s="26">
+        <f>(C8-$G$6)*(C8-$G$6)</f>
         <v>961</v>
       </c>
-      <c r="F8" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="32">
+      <c r="F8" s="49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="9">
+        <v>107</v>
+      </c>
+      <c r="C9" s="24">
+        <v>94</v>
+      </c>
+      <c r="D9" s="29">
+        <f>(B9-$G$5)*(B9-$G$5)</f>
+        <v>169</v>
+      </c>
+      <c r="E9" s="26">
+        <f>(C9-$G$6)*(C9-$G$6)</f>
+        <v>49</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="30">
         <f>COUNT(B3:B14)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="10">
-        <v>107</v>
-      </c>
-      <c r="C9" s="26">
-        <v>94</v>
-      </c>
-      <c r="D9" s="31">
-        <f t="shared" si="1"/>
-        <v>169</v>
-      </c>
-      <c r="E9" s="28">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="32">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="9">
+        <v>83</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="29">
+        <f>(B10-$G$5)*(B10-$G$5)</f>
+        <v>1369</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="30">
         <f>COUNT(C3:C9)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="10">
-        <v>83</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="31">
-        <f t="shared" si="1"/>
-        <v>1369</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="32"/>
-    </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>113</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="31">
-        <f t="shared" si="1"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="29">
+        <f>(B11-$G$5)*(B11-$G$5)</f>
         <v>49</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="32"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>129</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="31">
-        <f t="shared" si="1"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="29">
+        <f>(B12-$G$5)*(B12-$G$5)</f>
         <v>81</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="32">
+      <c r="E12" s="26"/>
+      <c r="F12" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="9">
+        <v>97</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="29">
+        <f>(B13-$G$5)*(B13-$G$5)</f>
+        <v>529</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="30">
         <f>SUM(D3:D14)</f>
         <v>5032</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="10">
-        <v>97</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="31">
-        <f t="shared" si="1"/>
-        <v>529</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="32">
+    <row r="14" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
+        <v>123</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="31">
+        <f>(B14-$G$5)*(B14-$G$5)</f>
+        <v>9</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="30">
         <f>SUM(E3:E9)</f>
         <v>2552</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
-        <v>123</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="33">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="32">
-        <f>G6-G7</f>
-        <v>19</v>
-      </c>
-    </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="32">
-        <f>(G12+G13)/(G8+G9-2)</f>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="30">
+        <f>(G13+G14)/(G9+G10-2)</f>
         <v>446.11764705882354</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="32">
-        <f>SQRT(G15*(1/G8+1/G9))</f>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="30">
+        <f>SQRT(G15*(1/G9+1/G10))</f>
         <v>10.045275657004645</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="34">
-        <f>G14/G16</f>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="30">
+        <f>G7/G16</f>
         <v>1.8914363974423301</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="46">
+        <f>1- _xlfn.T.DIST(G17,18,2)</f>
+        <v>3.7384937818839559E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1555,7 +1712,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1571,209 +1728,209 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.3">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="44">
+      <c r="B4" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="41">
         <v>70</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="41">
         <v>70</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="41">
         <v>70</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.3">
-      <c r="B5" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="44">
+      <c r="B5" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="41">
         <v>4</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="41">
         <v>3.7</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="41">
         <v>3.4</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="28">
+      <c r="F5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="26">
         <f>C4+D4+E4</f>
         <v>210</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="46">
+      <c r="B6" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="43">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="43">
         <v>5.2</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="43">
         <v>6.1</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="28">
+      <c r="F6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="26">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>38</v>
+      <c r="H6" s="16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F7" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="28">
+      <c r="F7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="26">
         <f>C4-1+D4-1+E4-1</f>
         <v>207</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>42</v>
+      <c r="H7" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F8" s="20"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F9" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="18"/>
+      <c r="F9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F10" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="28">
+      <c r="F10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="26">
         <f>AVERAGE(C5:E5)</f>
         <v>3.6999999999999997</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F11" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="28">
+      <c r="F11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="26">
         <f>C4*(C5-G10)^2 + D4*(D5-G10)^2 +E4*(E5-G10)^2</f>
         <v>12.600000000000005</v>
       </c>
-      <c r="H11" s="32"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F12" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="28">
+      <c r="F12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="26">
         <f>G11/G6</f>
         <v>6.3000000000000025</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F13" s="20"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F14" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="18"/>
+      <c r="F14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F15" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="28">
+      <c r="F15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="26">
         <f>C6*69+D6*69+E6*69</f>
         <v>1083.3000000000002</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>48</v>
+      <c r="H15" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F16" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="28">
+      <c r="F16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="26">
         <f>G15/G7</f>
         <v>5.2333333333333343</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F17" s="20"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F18" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="28">
+      <c r="F18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="26">
         <f>G12/G16</f>
         <v>1.2038216560509556</v>
       </c>
-      <c r="H18" s="18"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F19" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="28">
+      <c r="F19" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="26">
         <f>1- _xlfn.F.DIST(G18,G6,G7,TRUE)</f>
         <v>0.30213704562054455</v>
       </c>
-      <c r="H19" s="18" t="s">
-        <v>44</v>
+      <c r="H19" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="6:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="21"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="49"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
